--- a/ebs_with_tracing/forms/app/symptomatic_contact_follow_up.xlsx
+++ b/ebs_with_tracing/forms/app/symptomatic_contact_follow_up.xlsx
@@ -1,26 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10308"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/senseibara/Documents/MEDIC/config-cht-demo/forms/app/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\config-covid\forms\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A9534E-52ED-1E46-B6ED-1DCF48059672}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19440" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="33600" windowHeight="19440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
     <sheet name="choices" sheetId="2" r:id="rId2"/>
     <sheet name="settings" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -52,9 +51,6 @@
     <t>label::en</t>
   </si>
   <si>
-    <t>label::fr</t>
-  </si>
-  <si>
     <t>required</t>
   </si>
   <si>
@@ -76,9 +72,6 @@
     <t>constraint_message::en</t>
   </si>
   <si>
-    <t>constraint_message::fr</t>
-  </si>
-  <si>
     <t>choice_filter</t>
   </si>
   <si>
@@ -259,12 +252,6 @@
     <t>Ce champs est obligatoire</t>
   </si>
   <si>
-    <t>Oui</t>
-  </si>
-  <si>
-    <t>Non</t>
-  </si>
-  <si>
     <t>Vous devez recevoir une mise à jour sur la situation du patient pour accomplir cette tâche</t>
   </si>
   <si>
@@ -275,12 +262,24 @@
   </si>
   <si>
     <t>COVID-19 symptomatic contact follow up</t>
+  </si>
+  <si>
+    <t>Hongu</t>
+  </si>
+  <si>
+    <t>Kwete</t>
+  </si>
+  <si>
+    <t>label::sh</t>
+  </si>
+  <si>
+    <t>constraint_message::sh</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -854,37 +853,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK18"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="34.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="41.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="60.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" style="1" customWidth="1"/>
-    <col min="6" max="7" width="24.83203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="41.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="60.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.375" style="1" customWidth="1"/>
+    <col min="6" max="7" width="24.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.125" style="1" customWidth="1"/>
     <col min="9" max="9" width="39" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.1640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="25.83203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="25.875" style="1" customWidth="1"/>
     <col min="12" max="13" width="39" style="1" customWidth="1"/>
-    <col min="14" max="14" width="21.1640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="68.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="25.6640625" style="1" customWidth="1"/>
-    <col min="17" max="18" width="24.33203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="21.125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="68.375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="25.625" style="1" customWidth="1"/>
+    <col min="17" max="18" width="24.375" style="1" customWidth="1"/>
     <col min="19" max="19" width="13.5" style="1" customWidth="1"/>
     <col min="20" max="30" width="10.5" style="1" customWidth="1"/>
     <col min="31" max="1018" width="10.5" customWidth="1"/>
-    <col min="1019" max="1026" width="8.33203125" customWidth="1"/>
+    <col min="1019" max="1026" width="8.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28 1025:1025" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28 1025:1025" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -895,80 +894,80 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="U1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="AMK1"/>
+    </row>
+    <row r="2" spans="1:28 1025:1025" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="AMK1"/>
-    </row>
-    <row r="2" spans="1:28 1025:1025" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="D2" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
@@ -978,51 +977,51 @@
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
       <c r="U2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="AMK2"/>
+    </row>
+    <row r="3" spans="1:28 1025:1025" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="AMK2"/>
-    </row>
-    <row r="3" spans="1:28 1025:1025" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+      <c r="C3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>28</v>
-      </c>
       <c r="D3" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="P3" s="8"/>
       <c r="AMK3"/>
     </row>
-    <row r="4" spans="1:28 1025:1025" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28 1025:1025" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="9"/>
@@ -1035,18 +1034,18 @@
       <c r="S4" s="9"/>
       <c r="AMK4"/>
     </row>
-    <row r="5" spans="1:28 1025:1025" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28 1025:1025" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
@@ -1062,9 +1061,9 @@
       <c r="P5" s="6"/>
       <c r="AMK5"/>
     </row>
-    <row r="6" spans="1:28 1025:1025" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28 1025:1025" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="12"/>
@@ -1086,18 +1085,18 @@
       <c r="S6" s="14"/>
       <c r="AMK6"/>
     </row>
-    <row r="7" spans="1:28 1025:1025" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28 1025:1025" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -1113,41 +1112,41 @@
       <c r="P7" s="6"/>
       <c r="AMK7"/>
     </row>
-    <row r="8" spans="1:28 1025:1025" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28 1025:1025" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28 1025:1025" s="10" customFormat="1" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28 1025:1025" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="9"/>
@@ -1162,24 +1161,24 @@
       <c r="S9" s="9"/>
       <c r="AMK9"/>
     </row>
-    <row r="10" spans="1:28 1025:1025" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28 1025:1025" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="9"/>
@@ -1192,24 +1191,24 @@
       <c r="S10" s="9"/>
       <c r="AMK10"/>
     </row>
-    <row r="11" spans="1:28 1025:1025" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28 1025:1025" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
       <c r="H11" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="9"/>
@@ -1222,18 +1221,18 @@
       <c r="S11" s="9"/>
       <c r="AMK11"/>
     </row>
-    <row r="12" spans="1:28 1025:1025" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28 1025:1025" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>44</v>
-      </c>
       <c r="D12" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
@@ -1250,9 +1249,9 @@
       <c r="S12" s="9"/>
       <c r="AMK12"/>
     </row>
-    <row r="13" spans="1:28 1025:1025" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28 1025:1025" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -1271,9 +1270,9 @@
       <c r="P13" s="6"/>
       <c r="AMK13"/>
     </row>
-    <row r="14" spans="1:28 1025:1025" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28 1025:1025" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -1292,27 +1291,27 @@
       <c r="P14" s="6"/>
       <c r="AMK14"/>
     </row>
-    <row r="15" spans="1:28 1025:1025" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28 1025:1025" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="D15" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="F15" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>49</v>
-      </c>
       <c r="G15" s="19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H15" s="19"/>
       <c r="I15" s="19"/>
@@ -1322,32 +1321,32 @@
       <c r="M15" s="18"/>
       <c r="N15" s="19"/>
       <c r="O15" s="17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P15" s="19"/>
       <c r="U15" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AMK15"/>
     </row>
-    <row r="16" spans="1:28 1025:1025" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28 1025:1025" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
@@ -1362,7 +1361,7 @@
       <c r="S16" s="22"/>
       <c r="T16" s="22"/>
       <c r="U16" s="22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="V16" s="22"/>
       <c r="W16" s="22"/>
@@ -1373,39 +1372,39 @@
       <c r="AB16" s="22"/>
       <c r="AMK16"/>
     </row>
-    <row r="17" spans="1:13 1025:1025" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13 1025:1025" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="D17" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="24" t="s">
         <v>53</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>55</v>
       </c>
       <c r="F17" s="24"/>
       <c r="G17" s="32"/>
       <c r="I17" s="24"/>
       <c r="K17" s="17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L17" s="17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M17" s="33" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AMK17"/>
     </row>
-    <row r="18" spans="1:13 1025:1025" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13 1025:1025" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B18" s="24"/>
       <c r="E18" s="24"/>
@@ -1421,26 +1420,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" style="26" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" style="26" customWidth="1"/>
-    <col min="3" max="3" width="76.1640625" style="26" customWidth="1"/>
-    <col min="4" max="4" width="103.6640625" style="27" customWidth="1"/>
+    <col min="1" max="1" width="27.375" style="26" customWidth="1"/>
+    <col min="2" max="2" width="21.625" style="26" customWidth="1"/>
+    <col min="3" max="3" width="76.125" style="26" customWidth="1"/>
+    <col min="4" max="4" width="103.625" style="27" customWidth="1"/>
     <col min="5" max="1022" width="10.5" customWidth="1"/>
-    <col min="1023" max="1025" width="8.33203125" customWidth="1"/>
+    <col min="1023" max="1025" width="8.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B1" s="28" t="s">
         <v>1</v>
@@ -1449,44 +1448,44 @@
         <v>2</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="26" t="s">
+      <c r="C3" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="27" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>62</v>
-      </c>
       <c r="D3" s="27" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="23"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="23"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="23"/>
     </row>
   </sheetData>
@@ -1496,60 +1495,60 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="121.5" style="27" customWidth="1"/>
     <col min="2" max="2" width="58.5" style="27" customWidth="1"/>
-    <col min="3" max="3" width="32.1640625" style="27" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" style="27" customWidth="1"/>
+    <col min="3" max="3" width="32.125" style="27" customWidth="1"/>
+    <col min="4" max="4" width="14.625" style="27" customWidth="1"/>
     <col min="5" max="5" width="10.5" style="27" customWidth="1"/>
-    <col min="6" max="6" width="24.83203125" style="27" customWidth="1"/>
+    <col min="6" max="6" width="24.875" style="27" customWidth="1"/>
     <col min="7" max="1025" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="29" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="29" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="D1" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="E1" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="F1" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="F1" s="30" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="27" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:6" s="27" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C2" s="23" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2020-04-10 5-26</v>
+        <v>2020-06-28 20-06</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F2" s="31"/>
     </row>

--- a/ebs_with_tracing/forms/app/symptomatic_contact_follow_up.xlsx
+++ b/ebs_with_tracing/forms/app/symptomatic_contact_follow_up.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\config-covid\forms\app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\config-covid\ebs_with_tracing\forms\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="33600" windowHeight="19440" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="33600" windowHeight="19440" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="72">
   <si>
     <t>type</t>
   </si>
@@ -84,9 +84,6 @@
     <t>media::image::en</t>
   </si>
   <si>
-    <t>media::image::fr</t>
-  </si>
-  <si>
     <t>media::video</t>
   </si>
   <si>
@@ -168,9 +165,6 @@
     <t>external_id</t>
   </si>
   <si>
-    <t>Muso ID</t>
-  </si>
-  <si>
     <t>calculate</t>
   </si>
   <si>
@@ -252,9 +246,6 @@
     <t>Ce champs est obligatoire</t>
   </si>
   <si>
-    <t>Vous devez recevoir une mise à jour sur la situation du patient pour accomplir cette tâche</t>
-  </si>
-  <si>
     <t>Follow-up after symptomatic patient</t>
   </si>
   <si>
@@ -264,23 +255,14 @@
     <t>COVID-19 symptomatic contact follow up</t>
   </si>
   <si>
-    <t>Hongu</t>
-  </si>
-  <si>
-    <t>Kwete</t>
-  </si>
-  <si>
-    <t>label::sh</t>
-  </si>
-  <si>
-    <t>constraint_message::sh</t>
+    <t>LGH ID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -351,12 +333,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -411,7 +387,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -471,9 +447,6 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -505,7 +478,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -854,10 +826,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK18"/>
+  <dimension ref="A1:AMH18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView topLeftCell="L1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -865,25 +837,24 @@
     <col min="1" max="1" width="43.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="34.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="41.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="60.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.375" style="1" customWidth="1"/>
-    <col min="6" max="7" width="24.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="39" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="25.875" style="1" customWidth="1"/>
-    <col min="12" max="13" width="39" style="1" customWidth="1"/>
-    <col min="14" max="14" width="21.125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="68.375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="25.625" style="1" customWidth="1"/>
-    <col min="17" max="18" width="24.375" style="1" customWidth="1"/>
-    <col min="19" max="19" width="13.5" style="1" customWidth="1"/>
-    <col min="20" max="30" width="10.5" style="1" customWidth="1"/>
-    <col min="31" max="1018" width="10.5" customWidth="1"/>
-    <col min="1019" max="1026" width="8.375" customWidth="1"/>
+    <col min="4" max="4" width="13.375" style="1" customWidth="1"/>
+    <col min="5" max="6" width="24.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="39" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21.125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="25.875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="39" style="1" customWidth="1"/>
+    <col min="12" max="12" width="21.125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="68.375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="25.625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="24.375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5" style="1" customWidth="1"/>
+    <col min="17" max="27" width="10.5" style="1" customWidth="1"/>
+    <col min="28" max="1015" width="10.5" customWidth="1"/>
+    <col min="1016" max="1023" width="8.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28 1025:1025" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1022" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -894,460 +865,399 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="H1" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="S1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="R1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="AMH1"/>
+    </row>
+    <row r="2" spans="1:1022" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AMK1"/>
-    </row>
-    <row r="2" spans="1:28 1025:1025" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="B2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
+      <c r="G2" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="H2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="I2" s="6"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="U2" s="7" t="s">
+      <c r="R2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="AMH2"/>
+    </row>
+    <row r="3" spans="1:1022" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="AMK2"/>
-    </row>
-    <row r="3" spans="1:28 1025:1025" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="B3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="G3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="8" t="s">
+      <c r="N3" s="8"/>
+      <c r="AMH3"/>
+    </row>
+    <row r="4" spans="1:1022" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8" t="s">
+      <c r="B4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="P3" s="8"/>
-      <c r="AMK3"/>
-    </row>
-    <row r="4" spans="1:28 1025:1025" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="8" t="s">
+      <c r="C4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>29</v>
-      </c>
+      <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="8"/>
+      <c r="G4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="8"/>
+      <c r="I4" s="9"/>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
       <c r="P4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="AMK4"/>
-    </row>
-    <row r="5" spans="1:28 1025:1025" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AMH4"/>
+    </row>
+    <row r="5" spans="1:1022" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>30</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
+      <c r="G5" s="5"/>
       <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
+      <c r="I5" s="6"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="AMK5"/>
-    </row>
-    <row r="6" spans="1:28 1025:1025" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AMH5"/>
+    </row>
+    <row r="6" spans="1:1022" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
+      <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
+      <c r="G6" s="12"/>
       <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
+      <c r="I6" s="13"/>
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
       <c r="M6" s="13"/>
       <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-      <c r="AMK6"/>
-    </row>
-    <row r="7" spans="1:28 1025:1025" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="AMH6"/>
+    </row>
+    <row r="7" spans="1:1022" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>33</v>
-      </c>
+      <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
+      <c r="G7" s="5"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="AMK7"/>
-    </row>
-    <row r="8" spans="1:28 1025:1025" x14ac:dyDescent="0.25">
+      <c r="AMH7"/>
+    </row>
+    <row r="8" spans="1:1022" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1022" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28 1025:1025" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>24</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>35</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="8"/>
+      <c r="G9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="8"/>
+      <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
+      <c r="O9" s="16"/>
       <c r="P9" s="9"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="9"/>
-      <c r="AMK9"/>
-    </row>
-    <row r="10" spans="1:28 1025:1025" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AMH9"/>
+    </row>
+    <row r="10" spans="1:1022" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>37</v>
-      </c>
+      <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" s="8"/>
+      <c r="G10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="8"/>
+      <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
       <c r="P10" s="9"/>
-      <c r="S10" s="9"/>
-      <c r="AMK10"/>
-    </row>
-    <row r="11" spans="1:28 1025:1025" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AMH10"/>
+    </row>
+    <row r="11" spans="1:1022" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>39</v>
-      </c>
+      <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I11" s="8"/>
+      <c r="G11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="8"/>
+      <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
       <c r="P11" s="9"/>
-      <c r="S11" s="9"/>
-      <c r="AMK11"/>
-    </row>
-    <row r="12" spans="1:28 1025:1025" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AMH11"/>
+    </row>
+    <row r="12" spans="1:1022" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>41</v>
-      </c>
       <c r="C12" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>42</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
+      <c r="G12" s="8"/>
       <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
+      <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
       <c r="P12" s="9"/>
-      <c r="S12" s="9"/>
-      <c r="AMK12"/>
-    </row>
-    <row r="13" spans="1:28 1025:1025" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AMH12"/>
+    </row>
+    <row r="13" spans="1:1022" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
+      <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
+      <c r="G13" s="5"/>
       <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="AMK13"/>
-    </row>
-    <row r="14" spans="1:28 1025:1025" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AMH13"/>
+    </row>
+    <row r="14" spans="1:1022" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
+      <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
+      <c r="G14" s="5"/>
       <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
+      <c r="I14" s="6"/>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="AMK14"/>
-    </row>
-    <row r="15" spans="1:28 1025:1025" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AMH14"/>
+    </row>
+    <row r="15" spans="1:1022" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="D15" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="E15" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>46</v>
-      </c>
       <c r="F15" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>69</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G15" s="19"/>
       <c r="H15" s="19"/>
       <c r="I15" s="19"/>
       <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="17" t="s">
+        <v>46</v>
+      </c>
       <c r="N15" s="19"/>
-      <c r="O15" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="P15" s="19"/>
-      <c r="U15" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="AMK15"/>
-    </row>
-    <row r="16" spans="1:28 1025:1025" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R15" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="AMH15"/>
+    </row>
+    <row r="16" spans="1:1022" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>71</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="20" t="s">
-        <v>21</v>
-      </c>
+      <c r="G16" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="7"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
@@ -1355,63 +1265,54 @@
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="21"/>
-      <c r="S16" s="22"/>
-      <c r="T16" s="22"/>
-      <c r="U16" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="V16" s="22"/>
-      <c r="W16" s="22"/>
-      <c r="X16" s="22"/>
-      <c r="Y16" s="22"/>
-      <c r="Z16" s="22"/>
-      <c r="AA16" s="22"/>
-      <c r="AB16" s="22"/>
-      <c r="AMK16"/>
-    </row>
-    <row r="17" spans="1:13 1025:1025" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="S16" s="21"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="21"/>
+      <c r="V16" s="21"/>
+      <c r="W16" s="21"/>
+      <c r="X16" s="21"/>
+      <c r="Y16" s="21"/>
+      <c r="AMH16"/>
+    </row>
+    <row r="17" spans="1:1022" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="D17" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="E17" s="23"/>
+      <c r="F17" s="31"/>
+      <c r="H17" s="23"/>
+      <c r="J17" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" s="24" t="s">
+      <c r="K17" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="F17" s="24"/>
-      <c r="G17" s="32"/>
-      <c r="I17" s="24"/>
-      <c r="K17" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="L17" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="M17" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="AMK17"/>
-    </row>
-    <row r="18" spans="1:13 1025:1025" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="32"/>
-      <c r="I18" s="24"/>
-      <c r="AMK18"/>
+      <c r="AMH17"/>
+    </row>
+    <row r="18" spans="1:1022" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="31"/>
+      <c r="H18" s="23"/>
+      <c r="AMH18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -1421,72 +1322,62 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.375" style="26" customWidth="1"/>
-    <col min="2" max="2" width="21.625" style="26" customWidth="1"/>
-    <col min="3" max="3" width="76.125" style="26" customWidth="1"/>
-    <col min="4" max="4" width="103.625" style="27" customWidth="1"/>
-    <col min="5" max="1022" width="10.5" customWidth="1"/>
-    <col min="1023" max="1025" width="8.375" customWidth="1"/>
+    <col min="1" max="1" width="27.375" style="25" customWidth="1"/>
+    <col min="2" max="2" width="21.625" style="25" customWidth="1"/>
+    <col min="3" max="3" width="76.125" style="25" customWidth="1"/>
+    <col min="4" max="1021" width="10.5" customWidth="1"/>
+    <col min="1022" max="1024" width="8.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:3" s="28" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="28" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="26" t="s">
+      <c r="C3" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="27" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="22"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="22"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -1498,59 +1389,59 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="121.5" style="27" customWidth="1"/>
-    <col min="2" max="2" width="58.5" style="27" customWidth="1"/>
-    <col min="3" max="3" width="32.125" style="27" customWidth="1"/>
-    <col min="4" max="4" width="14.625" style="27" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="27" customWidth="1"/>
-    <col min="6" max="6" width="24.875" style="27" customWidth="1"/>
+    <col min="1" max="1" width="121.5" style="26" customWidth="1"/>
+    <col min="2" max="2" width="58.5" style="26" customWidth="1"/>
+    <col min="3" max="3" width="32.125" style="26" customWidth="1"/>
+    <col min="4" max="4" width="14.625" style="26" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="26" customWidth="1"/>
+    <col min="6" max="6" width="24.875" style="26" customWidth="1"/>
     <col min="7" max="1025" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="29" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:6" s="28" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="D1" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="E1" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="F1" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="30" t="s">
+    </row>
+    <row r="2" spans="1:6" s="26" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="22" t="str">
+        <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
+        <v>2020-08-19 22-20</v>
+      </c>
+      <c r="D2" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="E2" s="30" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" s="27" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="B2" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" s="23" t="str">
-        <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2020-06-28 20-06</v>
-      </c>
-      <c r="D2" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="E2" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" s="31"/>
+      <c r="F2" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
